--- a/column_completeness_sample/Anon1Evaluation.xlsx
+++ b/column_completeness_sample/Anon1Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\column_completeness_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Baroncini\OneDrive - Alma Mater Studiorum Università di Bologna\Documents\GitHub\ArtGraphsLandscapeAnalysis\column_completeness_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94995E2-3B29-4CC6-9A97-D66E4549442B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9214E6-64C6-4913-9D75-50B728607490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="column_completeness_yago" sheetId="2" r:id="rId1"/>
@@ -6296,7 +6296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6315,6 +6315,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -6602,13 +6604,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6625,7 +6627,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>106</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>152</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -6697,7 +6699,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
@@ -6715,7 +6717,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -6733,7 +6735,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -6751,7 +6753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -6769,7 +6771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>122</v>
       </c>
@@ -6787,7 +6789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>124</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
@@ -6823,7 +6825,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>161</v>
       </c>
@@ -6841,7 +6843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -6859,7 +6861,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>163</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>154</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>155</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>144</v>
       </c>
@@ -6931,7 +6933,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>98</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
@@ -6985,7 +6987,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -7003,7 +7005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>110</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>111</v>
       </c>
@@ -7039,7 +7041,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>112</v>
       </c>
@@ -7057,7 +7059,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>156</v>
       </c>
@@ -7075,7 +7077,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>175</v>
       </c>
@@ -7093,7 +7095,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>150</v>
       </c>
@@ -7111,7 +7113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -7129,7 +7131,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -7147,7 +7149,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -7201,7 +7203,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -7237,7 +7239,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
@@ -7255,7 +7257,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -7273,7 +7275,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>126</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -7309,7 +7311,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>52</v>
       </c>
@@ -7345,7 +7347,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>91</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>113</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>128</v>
       </c>
@@ -7399,7 +7401,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>146</v>
       </c>
@@ -7417,7 +7419,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -7435,7 +7437,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -7453,7 +7455,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>165</v>
       </c>
@@ -7471,7 +7473,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>167</v>
       </c>
@@ -7489,7 +7491,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>169</v>
       </c>
@@ -7507,7 +7509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>130</v>
       </c>
@@ -7525,7 +7527,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>53</v>
       </c>
@@ -7543,7 +7545,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>173</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>20</v>
       </c>
@@ -7597,7 +7599,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>132</v>
       </c>
@@ -7615,7 +7617,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>24</v>
       </c>
@@ -7633,7 +7635,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>26</v>
       </c>
@@ -7651,7 +7653,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>55</v>
       </c>
@@ -7669,7 +7671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>33</v>
       </c>
@@ -7687,7 +7689,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>57</v>
       </c>
@@ -7705,7 +7707,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>75</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>77</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>95</v>
       </c>
@@ -7777,7 +7779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>28</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>100</v>
       </c>
@@ -7813,7 +7815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>171</v>
       </c>
@@ -7831,7 +7833,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>104</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>116</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>134</v>
       </c>
@@ -7885,7 +7887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>136</v>
       </c>
@@ -7903,7 +7905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>157</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>159</v>
       </c>
@@ -7939,7 +7941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>138</v>
       </c>
@@ -7957,7 +7959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>79</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>140</v>
       </c>
@@ -7993,7 +7995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>142</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>30</v>
       </c>
@@ -8029,7 +8031,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>14</v>
       </c>
@@ -8047,7 +8049,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>118</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>83</v>
       </c>
@@ -8083,7 +8085,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>102</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>97</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>31</v>
       </c>
@@ -8137,7 +8139,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>143</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>81</v>
       </c>
@@ -8173,7 +8175,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>37</v>
       </c>
@@ -8191,7 +8193,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>18</v>
       </c>
@@ -8209,7 +8211,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>22</v>
       </c>
@@ -8227,7 +8229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>60</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>16</v>
       </c>
@@ -8263,7 +8265,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>119</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>61</v>
       </c>
@@ -8299,7 +8301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>120</v>
       </c>
@@ -8317,7 +8319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>62</v>
       </c>
@@ -8335,7 +8337,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>63</v>
       </c>
@@ -8353,7 +8355,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>64</v>
       </c>
@@ -8371,7 +8373,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>148</v>
       </c>
@@ -8389,7 +8391,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>65</v>
       </c>
@@ -8407,7 +8409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>35</v>
       </c>
@@ -8425,7 +8427,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8452,15 +8454,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8480,7 +8482,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>235</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>194</v>
       </c>
@@ -8522,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>355</v>
       </c>
@@ -8543,7 +8545,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>291</v>
       </c>
@@ -8564,7 +8566,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>277</v>
       </c>
@@ -8585,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>182</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>273</v>
       </c>
@@ -8627,7 +8629,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>219</v>
       </c>
@@ -8648,7 +8650,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>259</v>
       </c>
@@ -8669,7 +8671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>292</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>197</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>329</v>
       </c>
@@ -8732,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>247</v>
       </c>
@@ -8753,7 +8755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>354</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>188</v>
       </c>
@@ -8795,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>369</v>
       </c>
@@ -8816,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>232</v>
       </c>
@@ -8837,7 +8839,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>225</v>
       </c>
@@ -8858,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>334</v>
       </c>
@@ -8879,7 +8881,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>298</v>
       </c>
@@ -8900,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>215</v>
       </c>
@@ -8921,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>308</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>261</v>
       </c>
@@ -8963,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>344</v>
       </c>
@@ -8984,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>318</v>
       </c>
@@ -9005,7 +9007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>279</v>
       </c>
@@ -9026,7 +9028,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>340</v>
       </c>
@@ -9047,7 +9049,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>294</v>
       </c>
@@ -9068,7 +9070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>199</v>
       </c>
@@ -9089,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>325</v>
       </c>
@@ -9110,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>359</v>
       </c>
@@ -9131,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>316</v>
       </c>
@@ -9152,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>346</v>
       </c>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>271</v>
       </c>
@@ -9194,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>310</v>
       </c>
@@ -9215,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>201</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>241</v>
       </c>
@@ -9257,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>306</v>
       </c>
@@ -9278,7 +9280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>302</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>226</v>
       </c>
@@ -9320,7 +9322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>269</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>304</v>
       </c>
@@ -9362,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>209</v>
       </c>
@@ -9383,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>190</v>
       </c>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>245</v>
       </c>
@@ -9425,7 +9427,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>321</v>
       </c>
@@ -9446,7 +9448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>348</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>365</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>350</v>
       </c>
@@ -9509,7 +9511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>363</v>
       </c>
@@ -9530,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>281</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>243</v>
       </c>
@@ -9572,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>217</v>
       </c>
@@ -9593,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>289</v>
       </c>
@@ -9614,7 +9616,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>342</v>
       </c>
@@ -9635,7 +9637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>223</v>
       </c>
@@ -9656,7 +9658,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>257</v>
       </c>
@@ -9677,7 +9679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>239</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>267</v>
       </c>
@@ -9719,7 +9721,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>357</v>
       </c>
@@ -9739,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>336</v>
       </c>
@@ -9760,7 +9762,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>330</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>314</v>
       </c>
@@ -9802,7 +9804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>287</v>
       </c>
@@ -9823,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>249</v>
       </c>
@@ -9844,7 +9846,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>300</v>
       </c>
@@ -9865,7 +9867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>367</v>
       </c>
@@ -9886,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>211</v>
       </c>
@@ -9907,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>352</v>
       </c>
@@ -9928,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>285</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>323</v>
       </c>
@@ -9970,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>233</v>
       </c>
@@ -9991,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>251</v>
       </c>
@@ -10012,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>327</v>
       </c>
@@ -10033,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>196</v>
       </c>
@@ -10054,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>265</v>
       </c>
@@ -10075,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>186</v>
       </c>
@@ -10096,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>192</v>
       </c>
@@ -10117,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>205</v>
       </c>
@@ -10138,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>263</v>
       </c>
@@ -10159,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
@@ -10180,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>361</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>184</v>
       </c>
@@ -10222,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>338</v>
       </c>
@@ -10243,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>283</v>
       </c>
@@ -10264,7 +10266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>230</v>
       </c>
@@ -10285,7 +10287,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>312</v>
       </c>
@@ -10305,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>213</v>
       </c>
@@ -10326,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>221</v>
       </c>
@@ -10347,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>253</v>
       </c>
@@ -10368,7 +10370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>237</v>
       </c>
@@ -10389,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>341</v>
       </c>
@@ -10410,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>203</v>
       </c>
@@ -10431,7 +10433,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>207</v>
       </c>
@@ -10452,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>255</v>
       </c>
@@ -10473,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>319</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>332</v>
       </c>
@@ -10515,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>275</v>
       </c>
@@ -10536,7 +10538,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>296</v>
       </c>
@@ -10557,7 +10559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>228</v>
       </c>
@@ -10578,7 +10580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
@@ -10605,13 +10607,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10628,7 +10630,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>580</v>
       </c>
@@ -10646,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>579</v>
       </c>
@@ -10664,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>494</v>
       </c>
@@ -10682,7 +10684,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>614</v>
       </c>
@@ -10700,7 +10702,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>618</v>
       </c>
@@ -10718,7 +10720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>489</v>
       </c>
@@ -10736,7 +10738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>525</v>
       </c>
@@ -10754,7 +10756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>638</v>
       </c>
@@ -10772,7 +10774,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>571</v>
       </c>
@@ -10790,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>610</v>
       </c>
@@ -10808,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>601</v>
       </c>
@@ -10826,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>557</v>
       </c>
@@ -10844,7 +10846,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>538</v>
       </c>
@@ -10862,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>462</v>
       </c>
@@ -10880,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>649</v>
       </c>
@@ -10898,7 +10900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>544</v>
       </c>
@@ -10916,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>547</v>
       </c>
@@ -10934,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>476</v>
       </c>
@@ -10952,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>565</v>
       </c>
@@ -10970,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>472</v>
       </c>
@@ -10988,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>559</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>622</v>
       </c>
@@ -11024,7 +11026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>624</v>
       </c>
@@ -11042,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>597</v>
       </c>
@@ -11060,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>493</v>
       </c>
@@ -11078,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>575</v>
       </c>
@@ -11096,7 +11098,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>651</v>
       </c>
@@ -11114,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>551</v>
       </c>
@@ -11132,7 +11134,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>599</v>
       </c>
@@ -11150,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>481</v>
       </c>
@@ -11168,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>515</v>
       </c>
@@ -11186,7 +11188,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>608</v>
       </c>
@@ -11204,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>561</v>
       </c>
@@ -11222,7 +11224,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>483</v>
       </c>
@@ -11240,7 +11242,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>477</v>
       </c>
@@ -11258,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>542</v>
       </c>
@@ -11276,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>519</v>
       </c>
@@ -11294,7 +11296,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>527</v>
       </c>
@@ -11312,7 +11314,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>603</v>
       </c>
@@ -11330,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>535</v>
       </c>
@@ -11348,7 +11350,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>470</v>
       </c>
@@ -11366,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>569</v>
       </c>
@@ -11384,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>529</v>
       </c>
@@ -11402,7 +11404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>616</v>
       </c>
@@ -11420,7 +11422,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>549</v>
       </c>
@@ -11438,7 +11440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>582</v>
       </c>
@@ -11456,7 +11458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>499</v>
       </c>
@@ -11474,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>573</v>
       </c>
@@ -11492,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>511</v>
       </c>
@@ -11510,7 +11512,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>626</v>
       </c>
@@ -11528,7 +11530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>498</v>
       </c>
@@ -11546,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>496</v>
       </c>
@@ -11564,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>628</v>
       </c>
@@ -11582,7 +11584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>632</v>
       </c>
@@ -11600,7 +11602,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>517</v>
       </c>
@@ -11618,7 +11620,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>487</v>
       </c>
@@ -11636,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>567</v>
       </c>
@@ -11654,7 +11656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>606</v>
       </c>
@@ -11672,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>604</v>
       </c>
@@ -11690,7 +11692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>593</v>
       </c>
@@ -11708,7 +11710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>595</v>
       </c>
@@ -11726,7 +11728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>620</v>
       </c>
@@ -11744,7 +11746,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>540</v>
       </c>
@@ -11762,7 +11764,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>468</v>
       </c>
@@ -11780,7 +11782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>501</v>
       </c>
@@ -11798,7 +11800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>509</v>
       </c>
@@ -11816,7 +11818,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>577</v>
       </c>
@@ -11834,7 +11836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>533</v>
       </c>
@@ -11852,7 +11854,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>553</v>
       </c>
@@ -11870,7 +11872,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>507</v>
       </c>
@@ -11888,7 +11890,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>503</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>640</v>
       </c>
@@ -11924,7 +11926,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>644</v>
       </c>
@@ -11942,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>587</v>
       </c>
@@ -11960,7 +11962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>642</v>
       </c>
@@ -11978,7 +11980,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>612</v>
       </c>
@@ -11996,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>521</v>
       </c>
@@ -12014,7 +12016,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>531</v>
       </c>
@@ -12032,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>479</v>
       </c>
@@ -12050,7 +12052,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>545</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>474</v>
       </c>
@@ -12086,7 +12088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>513</v>
       </c>
@@ -12104,7 +12106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>485</v>
       </c>
@@ -12122,7 +12124,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>491</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>505</v>
       </c>
@@ -12158,7 +12160,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>591</v>
       </c>
@@ -12176,7 +12178,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>464</v>
       </c>
@@ -12194,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>584</v>
       </c>
@@ -12212,7 +12214,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>589</v>
       </c>
@@ -12230,7 +12232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>630</v>
       </c>
@@ -12248,7 +12250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>646</v>
       </c>
@@ -12266,7 +12268,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>636</v>
       </c>
@@ -12284,7 +12286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>563</v>
       </c>
@@ -12302,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>586</v>
       </c>
@@ -12320,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>555</v>
       </c>
@@ -12338,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>536</v>
       </c>
@@ -12356,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>634</v>
       </c>
@@ -12374,7 +12376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>648</v>
       </c>
@@ -12392,7 +12394,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>466</v>
       </c>
@@ -12410,7 +12412,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>523</v>
       </c>
@@ -12428,7 +12430,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="6"/>
       <c r="C102" s="2"/>
@@ -12457,13 +12459,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>662</v>
       </c>
@@ -12498,7 +12500,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>698</v>
       </c>
@@ -12516,7 +12518,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>746</v>
       </c>
@@ -12534,7 +12536,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>782</v>
       </c>
@@ -12552,7 +12554,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>814</v>
       </c>
@@ -12570,7 +12572,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>700</v>
       </c>
@@ -12588,7 +12590,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>734</v>
       </c>
@@ -12606,7 +12608,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>790</v>
       </c>
@@ -12624,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>732</v>
       </c>
@@ -12642,7 +12644,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>713</v>
       </c>
@@ -12660,7 +12662,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>728</v>
       </c>
@@ -12678,7 +12680,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>778</v>
       </c>
@@ -12696,7 +12698,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>775</v>
       </c>
@@ -12714,7 +12716,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>740</v>
       </c>
@@ -12732,7 +12734,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>738</v>
       </c>
@@ -12750,7 +12752,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>767</v>
       </c>
@@ -12768,7 +12770,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>687</v>
       </c>
@@ -12786,7 +12788,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>715</v>
       </c>
@@ -12804,7 +12806,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>840</v>
       </c>
@@ -12822,7 +12824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>708</v>
       </c>
@@ -12840,7 +12842,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>765</v>
       </c>
@@ -12858,7 +12860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>826</v>
       </c>
@@ -12876,7 +12878,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>750</v>
       </c>
@@ -12894,7 +12896,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>674</v>
       </c>
@@ -12912,7 +12914,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>830</v>
       </c>
@@ -12930,7 +12932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>658</v>
       </c>
@@ -12948,7 +12950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>802</v>
       </c>
@@ -12966,7 +12968,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>837</v>
       </c>
@@ -12984,7 +12986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>689</v>
       </c>
@@ -13002,7 +13004,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>800</v>
       </c>
@@ -13020,7 +13022,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>773</v>
       </c>
@@ -13038,7 +13040,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>798</v>
       </c>
@@ -13056,7 +13058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>742</v>
       </c>
@@ -13074,7 +13076,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>816</v>
       </c>
@@ -13092,7 +13094,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>726</v>
       </c>
@@ -13110,7 +13112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>772</v>
       </c>
@@ -13128,7 +13130,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>683</v>
       </c>
@@ -13146,7 +13148,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>824</v>
       </c>
@@ -13164,7 +13166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>736</v>
       </c>
@@ -13182,7 +13184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>706</v>
       </c>
@@ -13200,7 +13202,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>678</v>
       </c>
@@ -13218,7 +13220,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>806</v>
       </c>
@@ -13236,7 +13238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>695</v>
       </c>
@@ -13254,7 +13256,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>788</v>
       </c>
@@ -13272,7 +13274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>730</v>
       </c>
@@ -13290,7 +13292,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>670</v>
       </c>
@@ -13308,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>836</v>
       </c>
@@ -13326,7 +13328,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>685</v>
       </c>
@@ -13344,7 +13346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>656</v>
       </c>
@@ -13362,7 +13364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>820</v>
       </c>
@@ -13380,7 +13382,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>672</v>
       </c>
@@ -13398,7 +13400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>682</v>
       </c>
@@ -13416,7 +13418,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>792</v>
       </c>
@@ -13434,7 +13436,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>676</v>
       </c>
@@ -13452,7 +13454,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>693</v>
       </c>
@@ -13470,7 +13472,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>744</v>
       </c>
@@ -13488,7 +13490,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>758</v>
       </c>
@@ -13506,7 +13508,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>724</v>
       </c>
@@ -13524,7 +13526,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>839</v>
       </c>
@@ -13542,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>719</v>
       </c>
@@ -13560,7 +13562,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>786</v>
       </c>
@@ -13578,7 +13580,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>776</v>
       </c>
@@ -13596,7 +13598,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>654</v>
       </c>
@@ -13614,7 +13616,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>756</v>
       </c>
@@ -13632,7 +13634,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>691</v>
       </c>
@@ -13650,7 +13652,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>760</v>
       </c>
@@ -13668,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>721</v>
       </c>
@@ -13686,7 +13688,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>769</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>722</v>
       </c>
@@ -13722,7 +13724,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>818</v>
       </c>
@@ -13740,7 +13742,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>763</v>
       </c>
@@ -13758,7 +13760,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>794</v>
       </c>
@@ -13776,7 +13778,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>784</v>
       </c>
@@ -13794,7 +13796,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>712</v>
       </c>
@@ -13812,7 +13814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>664</v>
       </c>
@@ -13830,7 +13832,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>762</v>
       </c>
@@ -13848,7 +13850,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>810</v>
       </c>
@@ -13866,7 +13868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>754</v>
       </c>
@@ -13884,7 +13886,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>666</v>
       </c>
@@ -13902,7 +13904,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>660</v>
       </c>
@@ -13920,7 +13922,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>702</v>
       </c>
@@ -13938,7 +13940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>717</v>
       </c>
@@ -13956,7 +13958,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>804</v>
       </c>
@@ -13974,7 +13976,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>796</v>
       </c>
@@ -13992,7 +13994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>780</v>
       </c>
@@ -14010,7 +14012,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>680</v>
       </c>
@@ -14028,7 +14030,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>812</v>
       </c>
@@ -14046,7 +14048,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>808</v>
       </c>
@@ -14064,7 +14066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>752</v>
       </c>
@@ -14082,7 +14084,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>704</v>
       </c>
@@ -14100,7 +14102,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>748</v>
       </c>
@@ -14118,7 +14120,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>822</v>
       </c>
@@ -14136,7 +14138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>668</v>
       </c>
@@ -14154,7 +14156,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>828</v>
       </c>
@@ -14172,7 +14174,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>832</v>
       </c>
@@ -14190,7 +14192,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>696</v>
       </c>
@@ -14208,7 +14210,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>841</v>
       </c>
@@ -14226,7 +14228,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>834</v>
       </c>
@@ -14244,7 +14246,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>770</v>
       </c>
@@ -14262,7 +14264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>710</v>
       </c>
@@ -14280,7 +14282,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="6"/>
       <c r="C102" s="2"/>
@@ -14306,13 +14308,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -14329,7 +14331,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>962</v>
       </c>
@@ -14347,7 +14349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>984</v>
       </c>
@@ -14365,7 +14367,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>881</v>
       </c>
@@ -14383,7 +14385,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>853</v>
       </c>
@@ -14401,7 +14403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>982</v>
       </c>
@@ -14419,7 +14421,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>921</v>
       </c>
@@ -14437,7 +14439,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>870</v>
       </c>
@@ -14455,7 +14457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>862</v>
       </c>
@@ -14473,7 +14475,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>916</v>
       </c>
@@ -14491,7 +14493,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>869</v>
       </c>
@@ -14509,7 +14511,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>974</v>
       </c>
@@ -14527,7 +14529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>992</v>
       </c>
@@ -14545,7 +14547,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>998</v>
       </c>
@@ -14563,7 +14565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>978</v>
       </c>
@@ -14581,7 +14583,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>872</v>
       </c>
@@ -14599,7 +14601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>955</v>
       </c>
@@ -14617,7 +14619,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>986</v>
       </c>
@@ -14635,7 +14637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>928</v>
       </c>
@@ -14653,7 +14655,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>945</v>
       </c>
@@ -14671,7 +14673,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>933</v>
       </c>
@@ -14689,7 +14691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>867</v>
       </c>
@@ -14707,7 +14709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>886</v>
       </c>
@@ -14725,7 +14727,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>890</v>
       </c>
@@ -14743,7 +14745,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>857</v>
       </c>
@@ -14761,7 +14763,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>883</v>
       </c>
@@ -14779,7 +14781,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>912</v>
       </c>
@@ -14797,7 +14799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1006</v>
       </c>
@@ -14815,7 +14817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>996</v>
       </c>
@@ -14833,7 +14835,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1001</v>
       </c>
@@ -14851,7 +14853,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>876</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>914</v>
       </c>
@@ -14887,7 +14889,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>905</v>
       </c>
@@ -14905,7 +14907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>988</v>
       </c>
@@ -14923,7 +14925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>951</v>
       </c>
@@ -14941,7 +14943,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>925</v>
       </c>
@@ -14959,7 +14961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>975</v>
       </c>
@@ -14977,7 +14979,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>994</v>
       </c>
@@ -14995,7 +14997,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>987</v>
       </c>
@@ -15013,7 +15015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>966</v>
       </c>
@@ -15031,7 +15033,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>849</v>
       </c>
@@ -15049,7 +15051,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>845</v>
       </c>
@@ -15067,7 +15069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>878</v>
       </c>
@@ -15085,7 +15087,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1007</v>
       </c>
@@ -15103,7 +15105,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>910</v>
       </c>
@@ -15121,7 +15123,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>917</v>
       </c>
@@ -15139,7 +15141,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1000</v>
       </c>
@@ -15157,7 +15159,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>894</v>
       </c>
@@ -15175,7 +15177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>958</v>
       </c>
@@ -15193,7 +15195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1003</v>
       </c>
@@ -15211,7 +15213,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>851</v>
       </c>
@@ -15229,7 +15231,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>924</v>
       </c>
@@ -15247,7 +15249,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>855</v>
       </c>
@@ -15265,7 +15267,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>866</v>
       </c>
@@ -15283,7 +15285,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>859</v>
       </c>
@@ -15301,7 +15303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>901</v>
       </c>
@@ -15319,7 +15321,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>864</v>
       </c>
@@ -15337,7 +15339,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>964</v>
       </c>
@@ -15355,7 +15357,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>948</v>
       </c>
@@ -15373,7 +15375,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>919</v>
       </c>
@@ -15391,7 +15393,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>927</v>
       </c>
@@ -15409,7 +15411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>943</v>
       </c>
@@ -15427,7 +15429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>938</v>
       </c>
@@ -15445,7 +15447,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>898</v>
       </c>
@@ -15463,7 +15465,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>874</v>
       </c>
@@ -15481,7 +15483,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>896</v>
       </c>
@@ -15499,7 +15501,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>972</v>
       </c>
@@ -15517,7 +15519,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>880</v>
       </c>
@@ -15535,7 +15537,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>970</v>
       </c>
@@ -15553,7 +15555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>929</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>960</v>
       </c>
@@ -15589,7 +15591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>847</v>
       </c>
@@ -15607,7 +15609,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>949</v>
       </c>
@@ -15625,7 +15627,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>957</v>
       </c>
@@ -15643,7 +15645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>941</v>
       </c>
@@ -15661,7 +15663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>939</v>
       </c>
@@ -15679,7 +15681,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>884</v>
       </c>
@@ -15697,7 +15699,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>932</v>
       </c>
@@ -15715,7 +15717,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>908</v>
       </c>
@@ -15733,7 +15735,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>953</v>
       </c>
@@ -15751,7 +15753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>923</v>
       </c>
@@ -15769,7 +15771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1004</v>
       </c>
@@ -15787,7 +15789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>888</v>
       </c>
@@ -15805,7 +15807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>968</v>
       </c>
@@ -15823,7 +15825,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>860</v>
       </c>
@@ -15841,7 +15843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>952</v>
       </c>
@@ -15859,7 +15861,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>892</v>
       </c>
@@ -15877,7 +15879,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>907</v>
       </c>
@@ -15895,7 +15897,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>931</v>
       </c>
@@ -15913,7 +15915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>991</v>
       </c>
@@ -15931,7 +15933,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>961</v>
       </c>
@@ -15949,7 +15951,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>934</v>
       </c>
@@ -15967,7 +15969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>977</v>
       </c>
@@ -15985,7 +15987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>900</v>
       </c>
@@ -16003,7 +16005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>903</v>
       </c>
@@ -16021,7 +16023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>946</v>
       </c>
@@ -16039,7 +16041,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>989</v>
       </c>
@@ -16057,7 +16059,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>981</v>
       </c>
@@ -16075,7 +16077,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>936</v>
       </c>
@@ -16093,7 +16095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>980</v>
       </c>
@@ -16111,7 +16113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>843</v>
       </c>
@@ -16129,7 +16131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -16155,17 +16157,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -16191,7 +16193,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1080</v>
       </c>
@@ -16218,7 +16220,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1084</v>
       </c>
@@ -16245,7 +16247,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1086</v>
       </c>
@@ -16272,7 +16274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1088</v>
       </c>
@@ -16299,7 +16301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1154</v>
       </c>
@@ -16326,7 +16328,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1034</v>
       </c>
@@ -16353,7 +16355,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1090</v>
       </c>
@@ -16380,7 +16382,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1092</v>
       </c>
@@ -16407,7 +16409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1096</v>
       </c>
@@ -16434,7 +16436,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1098</v>
       </c>
@@ -16461,7 +16463,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1197</v>
       </c>
@@ -16488,7 +16490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1201</v>
       </c>
@@ -16515,7 +16517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1041</v>
       </c>
@@ -16542,7 +16544,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1043</v>
       </c>
@@ -16569,7 +16571,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1045</v>
       </c>
@@ -16596,7 +16598,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1012</v>
       </c>
@@ -16623,7 +16625,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1102</v>
       </c>
@@ -16650,7 +16652,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1104</v>
       </c>
@@ -16677,7 +16679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1100</v>
       </c>
@@ -16704,7 +16706,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1188</v>
       </c>
@@ -16731,7 +16733,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1190</v>
       </c>
@@ -16758,7 +16760,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1076</v>
       </c>
@@ -16785,7 +16787,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1106</v>
       </c>
@@ -16812,7 +16814,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1065</v>
       </c>
@@ -16839,7 +16841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1203</v>
       </c>
@@ -16866,7 +16868,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1205</v>
       </c>
@@ -16893,7 +16895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1207</v>
       </c>
@@ -16920,7 +16922,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1072</v>
       </c>
@@ -16947,7 +16949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1219</v>
       </c>
@@ -16974,7 +16976,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1221</v>
       </c>
@@ -17001,7 +17003,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1209</v>
       </c>
@@ -17028,7 +17030,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1211</v>
       </c>
@@ -17055,7 +17057,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1213</v>
       </c>
@@ -17082,7 +17084,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1192</v>
       </c>
@@ -17109,7 +17111,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1223</v>
       </c>
@@ -17136,7 +17138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1225</v>
       </c>
@@ -17163,7 +17165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1016</v>
       </c>
@@ -17190,7 +17192,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>1067</v>
       </c>
@@ -17217,7 +17219,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1109</v>
       </c>
@@ -17244,7 +17246,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>1030</v>
       </c>
@@ -17271,7 +17273,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1111</v>
       </c>
@@ -17298,7 +17300,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>1215</v>
       </c>
@@ -17325,7 +17327,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1113</v>
       </c>
@@ -17352,7 +17354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>1078</v>
       </c>
@@ -17379,7 +17381,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1115</v>
       </c>
@@ -17406,7 +17408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1117</v>
       </c>
@@ -17433,7 +17435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1119</v>
       </c>
@@ -17460,7 +17462,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1121</v>
       </c>
@@ -17487,7 +17489,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1123</v>
       </c>
@@ -17514,7 +17516,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>1125</v>
       </c>
@@ -17541,7 +17543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>1127</v>
       </c>
@@ -17568,7 +17570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1129</v>
       </c>
@@ -17595,7 +17597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>1131</v>
       </c>
@@ -17622,7 +17624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>1135</v>
       </c>
@@ -17649,7 +17651,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1137</v>
       </c>
@@ -17676,7 +17678,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1139</v>
       </c>
@@ -17703,7 +17705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>1141</v>
       </c>
@@ -17730,7 +17732,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1143</v>
       </c>
@@ -17757,7 +17759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1049</v>
       </c>
@@ -17784,7 +17786,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>1051</v>
       </c>
@@ -17811,7 +17813,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1145</v>
       </c>
@@ -17838,7 +17840,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1155</v>
       </c>
@@ -17865,7 +17867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>1157</v>
       </c>
@@ -17892,7 +17894,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>1159</v>
       </c>
@@ -17919,7 +17921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>1161</v>
       </c>
@@ -17946,7 +17948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1163</v>
       </c>
@@ -17973,7 +17975,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>1165</v>
       </c>
@@ -18000,7 +18002,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>1217</v>
       </c>
@@ -18027,7 +18029,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>1167</v>
       </c>
@@ -18054,7 +18056,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1182</v>
       </c>
@@ -18081,7 +18083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>1147</v>
       </c>
@@ -18108,7 +18110,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>1149</v>
       </c>
@@ -18135,7 +18137,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>1151</v>
       </c>
@@ -18162,7 +18164,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>1053</v>
       </c>
@@ -18189,7 +18191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>1055</v>
       </c>
@@ -18216,7 +18218,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>1058</v>
       </c>
@@ -18243,7 +18245,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>1094</v>
       </c>
@@ -18270,7 +18272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1021</v>
       </c>
@@ -18297,7 +18299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>1019</v>
       </c>
@@ -18324,7 +18326,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>1036</v>
       </c>
@@ -18351,7 +18353,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1032</v>
       </c>
@@ -18378,7 +18380,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1169</v>
       </c>
@@ -18405,7 +18407,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1069</v>
       </c>
@@ -18432,7 +18434,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1184</v>
       </c>
@@ -18459,7 +18461,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1171</v>
       </c>
@@ -18486,7 +18488,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1172</v>
       </c>
@@ -18513,7 +18515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1174</v>
       </c>
@@ -18540,7 +18542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>1023</v>
       </c>
@@ -18567,7 +18569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1061</v>
       </c>
@@ -18594,7 +18596,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>1133</v>
       </c>
@@ -18621,7 +18623,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1074</v>
       </c>
@@ -18648,7 +18650,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1175</v>
       </c>
@@ -18675,7 +18677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1178</v>
       </c>
@@ -18702,7 +18704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1186</v>
       </c>
@@ -18729,7 +18731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1194</v>
       </c>
@@ -18756,7 +18758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18783,7 +18785,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1028</v>
       </c>
@@ -18810,7 +18812,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1038</v>
       </c>
@@ -18837,7 +18839,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1180</v>
       </c>
@@ -18864,7 +18866,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1063</v>
       </c>
@@ -18891,7 +18893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
@@ -18916,26 +18918,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A848D36F-D15B-4384-A772-DB9B4F9C53CE}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="4"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>1465</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -18951,97 +18953,107 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1421</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>1489</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1362</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>1476</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1343</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>1473</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1464</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1447</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>1489</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1401</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>1486</v>
       </c>
       <c r="D7" s="2">
@@ -19056,14 +19068,14 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1351</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>1476</v>
       </c>
       <c r="D8" s="2">
@@ -19078,14 +19090,14 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1331</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>1469</v>
       </c>
       <c r="D9" s="2">
@@ -19100,335 +19112,373 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1439</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1354</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1422</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1385</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1431</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="10" t="s">
         <v>1493</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1435</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="10" t="s">
         <v>1494</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1460</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1435</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="10" t="s">
         <v>1499</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1370</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="10" t="s">
         <v>1481</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1461</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1435</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1434</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1435</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="10" t="s">
         <v>1494</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1386</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1426</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="10" t="s">
         <v>1490</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1398</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1403</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1328</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1363</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1324</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1443</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1387</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1347</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="10" t="s">
         <v>1475</v>
       </c>
       <c r="D29" s="2">
@@ -19443,592 +19493,660 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1420</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1364</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1407</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1448</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1423</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1333</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1406</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1410</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1414</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>1353</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1404</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>1325</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1360</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>1319</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1399</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1400</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="10" t="s">
         <v>1485</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>1334</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1442</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1388</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1321</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1437</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1451</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>1361</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>1452</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1369</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D53" s="2">
         <v>-1</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2">
+        <v>-1</v>
+      </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>1402</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>1405</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1350</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>1438</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1376</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1411</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="10" t="s">
         <v>1470</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1446</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="10" t="s">
         <v>1466</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>1412</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1413</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="10" t="s">
         <v>1487</v>
       </c>
       <c r="D64" s="2">
@@ -20043,14 +20161,14 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>1394</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="10" t="s">
         <v>1395</v>
       </c>
       <c r="D65" s="2">
@@ -20065,14 +20183,14 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>1377</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="10" t="s">
         <v>1483</v>
       </c>
       <c r="D66" s="2">
@@ -20087,31 +20205,33 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1449</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>1450</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="10" t="s">
         <v>1497</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>1326</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="10" t="s">
         <v>1468</v>
       </c>
       <c r="D68" s="2">
@@ -20126,14 +20246,14 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>1462</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1463</v>
       </c>
-      <c r="C69" s="6"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="2">
         <v>2</v>
       </c>
@@ -20146,14 +20266,14 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>1432</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="10" t="s">
         <v>1433</v>
       </c>
       <c r="D70" s="2">
@@ -20162,16 +20282,19 @@
       <c r="E70" s="2">
         <v>2</v>
       </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1365</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="10" t="s">
         <v>1479</v>
       </c>
       <c r="D71" s="2">
@@ -20181,19 +20304,18 @@
         <v>2</v>
       </c>
       <c r="F71" s="2">
-        <f>D70/E70</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>1418</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="10" t="s">
         <v>1419</v>
       </c>
       <c r="D72" s="2">
@@ -20208,14 +20330,14 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>1440</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>1441</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="10" t="s">
         <v>1495</v>
       </c>
       <c r="D73" s="2">
@@ -20230,48 +20352,52 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>1417</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="10" t="s">
         <v>1480</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>1367</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="10" t="s">
         <v>1480</v>
       </c>
       <c r="D75" s="2">
         <v>0</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>1408</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="10" t="s">
         <v>1409</v>
       </c>
       <c r="D76" s="2">
@@ -20286,14 +20412,14 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>1381</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>1382</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="10" t="s">
         <v>1382</v>
       </c>
       <c r="D77" s="2">
@@ -20308,31 +20434,33 @@
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>1384</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="10" t="s">
         <v>1384</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1336</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="10" t="s">
         <v>1337</v>
       </c>
       <c r="D79" s="2">
@@ -20347,14 +20475,14 @@
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="10" t="s">
         <v>1467</v>
       </c>
       <c r="D80" s="2">
@@ -20369,14 +20497,14 @@
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>1322</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="10" t="s">
         <v>1467</v>
       </c>
       <c r="D81" s="2">
@@ -20391,33 +20519,35 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1345</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="10" t="s">
         <v>1474</v>
       </c>
       <c r="D82" s="2">
         <v>-1</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2">
+        <v>-1</v>
+      </c>
       <c r="G82" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1389</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>1390</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="10" t="s">
         <v>1390</v>
       </c>
       <c r="D83" s="2">
@@ -20432,14 +20562,14 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1356</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="10" t="s">
         <v>1477</v>
       </c>
       <c r="D84" s="2">
@@ -20454,14 +20584,14 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1374</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="10" t="s">
         <v>1375</v>
       </c>
       <c r="D85" s="2">
@@ -20476,14 +20606,14 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1444</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1445</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="10" t="s">
         <v>1496</v>
       </c>
       <c r="D86" s="2">
@@ -20498,14 +20628,14 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1358</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="10" t="s">
         <v>1478</v>
       </c>
       <c r="D87" s="2">
@@ -20520,14 +20650,14 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1340</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="10" t="s">
         <v>1472</v>
       </c>
       <c r="D88" s="2">
@@ -20542,14 +20672,14 @@
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>1424</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="10" t="s">
         <v>1425</v>
       </c>
       <c r="D89" s="2">
@@ -20564,14 +20694,14 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1456</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1457</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="10" t="s">
         <v>1457</v>
       </c>
       <c r="D90" s="2">
@@ -20586,33 +20716,35 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>1429</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="10" t="s">
         <v>1492</v>
       </c>
       <c r="D91" s="2">
         <v>-1</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2">
+        <v>-1</v>
+      </c>
       <c r="G91" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1415</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1416</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="10" t="s">
         <v>1488</v>
       </c>
       <c r="D92" s="2">
@@ -20627,14 +20759,14 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1329</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="10" t="s">
         <v>1330</v>
       </c>
       <c r="D93" s="2">
@@ -20649,14 +20781,14 @@
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1379</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="10" t="s">
         <v>1380</v>
       </c>
       <c r="D94" s="2">
@@ -20671,14 +20803,14 @@
       </c>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1396</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>1397</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="10" t="s">
         <v>1397</v>
       </c>
       <c r="D95" s="2">
@@ -20693,31 +20825,36 @@
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1391</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>1392</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="10" t="s">
         <v>1484</v>
       </c>
       <c r="D96" s="2">
         <v>2</v>
       </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="E96" s="2">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2">
+        <f>D96/E96</f>
+        <v>1</v>
+      </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1427</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>1428</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="10" t="s">
         <v>1491</v>
       </c>
       <c r="D97" s="2">
@@ -20732,14 +20869,14 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1372</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="10" t="s">
         <v>1482</v>
       </c>
       <c r="D98" s="2">
@@ -20754,14 +20891,14 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1338</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="10" t="s">
         <v>1471</v>
       </c>
       <c r="D99" s="2">
@@ -20776,14 +20913,14 @@
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1454</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="10" t="s">
         <v>1498</v>
       </c>
       <c r="D100" s="2">
@@ -20798,14 +20935,14 @@
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1458</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="10" t="s">
         <v>1459</v>
       </c>
       <c r="D101" s="2">
@@ -20820,27 +20957,27 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="6"/>
+      <c r="C102" s="10"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2">
         <f>SUM(F2:F101)</f>
-        <v>22.5</v>
+        <v>19.499999999999996</v>
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="6"/>
+      <c r="C103" s="10"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2">
         <f>F102/98</f>
-        <v>0.22959183673469388</v>
+        <v>0.19897959183673466</v>
       </c>
       <c r="G103" s="2"/>
     </row>
@@ -20860,15 +20997,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="4"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -20888,7 +21025,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1524</v>
       </c>
@@ -20909,7 +21046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1515</v>
       </c>
@@ -20930,7 +21067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1557</v>
       </c>
@@ -20951,7 +21088,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1623</v>
       </c>
@@ -20972,7 +21109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1554</v>
       </c>
@@ -20993,7 +21130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1686</v>
       </c>
@@ -21014,7 +21151,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1602</v>
       </c>
@@ -21035,7 +21172,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1578</v>
       </c>
@@ -21056,7 +21193,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1527</v>
       </c>
@@ -21077,7 +21214,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1635</v>
       </c>
@@ -21098,7 +21235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1689</v>
       </c>
@@ -21119,7 +21256,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1629</v>
       </c>
@@ -21140,7 +21277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1512</v>
       </c>
@@ -21161,7 +21298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1572</v>
       </c>
@@ -21182,7 +21319,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1518</v>
       </c>
@@ -21203,7 +21340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>1739</v>
       </c>
@@ -21224,7 +21361,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1581</v>
       </c>
@@ -21245,7 +21382,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>1754</v>
       </c>
@@ -21266,7 +21403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1736</v>
       </c>
@@ -21287,7 +21424,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1718</v>
       </c>
@@ -21308,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>1781</v>
       </c>
@@ -21329,7 +21466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>1662</v>
       </c>
@@ -21350,7 +21487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>1763</v>
       </c>
@@ -21371,7 +21508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>1593</v>
       </c>
@@ -21392,7 +21529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>1560</v>
       </c>
@@ -21413,7 +21550,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>1563</v>
       </c>
@@ -21434,7 +21571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1545</v>
       </c>
@@ -21455,7 +21592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>1626</v>
       </c>
@@ -21476,7 +21613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1647</v>
       </c>
@@ -21497,7 +21634,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1730</v>
       </c>
@@ -21518,7 +21655,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>1569</v>
       </c>
@@ -21539,7 +21676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>1608</v>
       </c>
@@ -21560,7 +21697,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>1766</v>
       </c>
@@ -21581,7 +21718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>1542</v>
       </c>
@@ -21602,7 +21739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>1778</v>
       </c>
@@ -21623,7 +21760,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>1695</v>
       </c>
@@ -21644,7 +21781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>1701</v>
       </c>
@@ -21665,7 +21802,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1674</v>
       </c>
@@ -21686,7 +21823,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>1793</v>
       </c>
@@ -21707,7 +21844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>1587</v>
       </c>
@@ -21728,7 +21865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>1506</v>
       </c>
@@ -21749,7 +21886,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1665</v>
       </c>
@@ -21770,7 +21907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>1683</v>
       </c>
@@ -21791,7 +21928,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>1724</v>
       </c>
@@ -21812,7 +21949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>1772</v>
       </c>
@@ -21833,7 +21970,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>1575</v>
       </c>
@@ -21854,7 +21991,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1596</v>
       </c>
@@ -21875,7 +22012,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>1632</v>
       </c>
@@ -21896,7 +22033,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1757</v>
       </c>
@@ -21917,7 +22054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1605</v>
       </c>
@@ -21938,7 +22075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1533</v>
       </c>
@@ -21959,7 +22096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>1650</v>
       </c>
@@ -21980,7 +22117,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1745</v>
       </c>
@@ -22001,7 +22138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>1704</v>
       </c>
@@ -22022,7 +22159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>1638</v>
       </c>
@@ -22043,7 +22180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>1698</v>
       </c>
@@ -22064,7 +22201,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1760</v>
       </c>
@@ -22085,7 +22222,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1539</v>
       </c>
@@ -22106,7 +22243,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1787</v>
       </c>
@@ -22127,7 +22264,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1707</v>
       </c>
@@ -22148,7 +22285,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>1784</v>
       </c>
@@ -22169,7 +22306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1614</v>
       </c>
@@ -22190,7 +22327,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1790</v>
       </c>
@@ -22211,7 +22348,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>1659</v>
       </c>
@@ -22232,7 +22369,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1530</v>
       </c>
@@ -22253,7 +22390,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1509</v>
       </c>
@@ -22274,7 +22411,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1653</v>
       </c>
@@ -22295,7 +22432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1751</v>
       </c>
@@ -22316,7 +22453,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>1548</v>
       </c>
@@ -22337,7 +22474,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>1709</v>
       </c>
@@ -22358,7 +22495,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>1721</v>
       </c>
@@ -22379,7 +22516,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>1599</v>
       </c>
@@ -22400,7 +22537,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>1796</v>
       </c>
@@ -22421,7 +22558,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1536</v>
       </c>
@@ -22442,7 +22579,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>1620</v>
       </c>
@@ -22463,7 +22600,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>1692</v>
       </c>
@@ -22484,7 +22621,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1641</v>
       </c>
@@ -22505,7 +22642,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>1775</v>
       </c>
@@ -22526,7 +22663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>1742</v>
       </c>
@@ -22547,7 +22684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>1727</v>
       </c>
@@ -22568,7 +22705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1712</v>
       </c>
@@ -22589,7 +22726,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1715</v>
       </c>
@@ -22610,7 +22747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1769</v>
       </c>
@@ -22631,7 +22768,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>1503</v>
       </c>
@@ -22652,7 +22789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>1748</v>
       </c>
@@ -22673,7 +22810,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>1584</v>
       </c>
@@ -22694,7 +22831,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1566</v>
       </c>
@@ -22715,7 +22852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1611</v>
       </c>
@@ -22736,7 +22873,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1644</v>
       </c>
@@ -22757,7 +22894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1680</v>
       </c>
@@ -22778,7 +22915,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1551</v>
       </c>
@@ -22799,7 +22936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1656</v>
       </c>
@@ -22820,7 +22957,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1590</v>
       </c>
@@ -22841,7 +22978,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1617</v>
       </c>
@@ -22862,7 +22999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1521</v>
       </c>
@@ -22883,7 +23020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>1798</v>
       </c>
@@ -22904,7 +23041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>1677</v>
       </c>
@@ -22925,7 +23062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1733</v>
       </c>
@@ -22946,7 +23083,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>1668</v>
       </c>
@@ -22967,7 +23104,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>1671</v>
       </c>
@@ -22988,7 +23125,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -23019,16 +23156,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -23054,7 +23191,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2021</v>
       </c>
@@ -23081,7 +23218,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1962</v>
       </c>
@@ -23108,7 +23245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1970</v>
       </c>
@@ -23135,7 +23272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2023</v>
       </c>
@@ -23162,7 +23299,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1948</v>
       </c>
@@ -23189,7 +23326,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1987</v>
       </c>
@@ -23216,7 +23353,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1861</v>
       </c>
@@ -23243,7 +23380,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2002</v>
       </c>
@@ -23270,7 +23407,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2047</v>
       </c>
@@ -23297,7 +23434,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1902</v>
       </c>
@@ -23324,7 +23461,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1960</v>
       </c>
@@ -23351,7 +23488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1896</v>
       </c>
@@ -23378,7 +23515,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1972</v>
       </c>
@@ -23405,7 +23542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1968</v>
       </c>
@@ -23432,7 +23569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1919</v>
       </c>
@@ -23459,7 +23596,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1956</v>
       </c>
@@ -23486,7 +23623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1871</v>
       </c>
@@ -23513,7 +23650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1925</v>
       </c>
@@ -23540,7 +23677,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1974</v>
       </c>
@@ -23567,7 +23704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1910</v>
       </c>
@@ -23594,7 +23731,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1811</v>
       </c>
@@ -23621,7 +23758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1821</v>
       </c>
@@ -23648,7 +23785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1880</v>
       </c>
@@ -23675,7 +23812,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1818</v>
       </c>
@@ -23702,7 +23839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1828</v>
       </c>
@@ -23729,7 +23866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1832</v>
       </c>
@@ -23756,7 +23893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1903</v>
       </c>
@@ -23783,7 +23920,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1898</v>
       </c>
@@ -23810,7 +23947,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1920</v>
       </c>
@@ -23837,7 +23974,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1884</v>
       </c>
@@ -23864,7 +24001,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1887</v>
       </c>
@@ -23891,7 +24028,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1825</v>
       </c>
@@ -23918,7 +24055,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1927</v>
       </c>
@@ -23945,7 +24082,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1913</v>
       </c>
@@ -23972,7 +24109,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1888</v>
       </c>
@@ -23999,7 +24136,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1807</v>
       </c>
@@ -24026,7 +24163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1940</v>
       </c>
@@ -24053,7 +24190,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>2043</v>
       </c>
@@ -24080,7 +24217,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>2050</v>
       </c>
@@ -24107,7 +24244,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>1836</v>
       </c>
@@ -24134,7 +24271,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>2039</v>
       </c>
@@ -24161,7 +24298,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>1980</v>
       </c>
@@ -24188,7 +24325,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1814</v>
       </c>
@@ -24215,7 +24352,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>2015</v>
       </c>
@@ -24242,7 +24379,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1992</v>
       </c>
@@ -24269,7 +24406,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1840</v>
       </c>
@@ -24296,7 +24433,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1875</v>
       </c>
@@ -24323,7 +24460,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1867</v>
       </c>
@@ -24350,7 +24487,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>2031</v>
       </c>
@@ -24377,7 +24514,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>2006</v>
       </c>
@@ -24404,7 +24541,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>2041</v>
       </c>
@@ -24431,7 +24568,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1985</v>
       </c>
@@ -24458,7 +24595,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>1949</v>
       </c>
@@ -24485,7 +24622,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>1803</v>
       </c>
@@ -24512,7 +24649,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1996</v>
       </c>
@@ -24539,7 +24676,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>2037</v>
       </c>
@@ -24566,7 +24703,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>2036</v>
       </c>
@@ -24593,7 +24730,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1990</v>
       </c>
@@ -24620,7 +24757,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1944</v>
       </c>
@@ -24647,7 +24784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>1946</v>
       </c>
@@ -24674,7 +24811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1848</v>
       </c>
@@ -24701,7 +24838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1851</v>
       </c>
@@ -24728,7 +24865,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>2052</v>
       </c>
@@ -24755,7 +24892,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>2045</v>
       </c>
@@ -24782,7 +24919,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>1858</v>
       </c>
@@ -24809,7 +24946,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1942</v>
       </c>
@@ -24836,7 +24973,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>1952</v>
       </c>
@@ -24863,7 +25000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>2009</v>
       </c>
@@ -24890,7 +25027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>2011</v>
       </c>
@@ -24917,7 +25054,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1928</v>
       </c>
@@ -24944,7 +25081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>1915</v>
       </c>
@@ -24971,7 +25108,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>1905</v>
       </c>
@@ -24998,7 +25135,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>1958</v>
       </c>
@@ -25025,7 +25162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>2012</v>
       </c>
@@ -25052,7 +25189,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>1900</v>
       </c>
@@ -25079,7 +25216,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>1854</v>
       </c>
@@ -25106,7 +25243,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>1922</v>
       </c>
@@ -25133,7 +25270,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1890</v>
       </c>
@@ -25160,7 +25297,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>1997</v>
       </c>
@@ -25187,7 +25324,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>1994</v>
       </c>
@@ -25214,7 +25351,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1983</v>
       </c>
@@ -25241,7 +25378,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1995</v>
       </c>
@@ -25268,7 +25405,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1876</v>
       </c>
@@ -25295,7 +25432,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1976</v>
       </c>
@@ -25322,7 +25459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1844</v>
       </c>
@@ -25349,7 +25486,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1943</v>
       </c>
@@ -25376,7 +25513,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1964</v>
       </c>
@@ -25403,7 +25540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>2027</v>
       </c>
@@ -25430,7 +25567,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1932</v>
       </c>
@@ -25457,7 +25594,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>2025</v>
       </c>
@@ -25484,7 +25621,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1998</v>
       </c>
@@ -25511,7 +25648,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1863</v>
       </c>
@@ -25538,7 +25675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1966</v>
       </c>
@@ -25565,7 +25702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1954</v>
       </c>
@@ -25592,7 +25729,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1936</v>
       </c>
@@ -25619,7 +25756,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1893</v>
       </c>
@@ -25646,7 +25783,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1908</v>
       </c>
@@ -25673,7 +25810,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>2017</v>
       </c>
@@ -25700,7 +25837,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>2019</v>
       </c>
@@ -25727,7 +25864,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>2034</v>
       </c>
@@ -25754,7 +25891,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>

--- a/column_completeness_sample/Anon1Evaluation.xlsx
+++ b/column_completeness_sample/Anon1Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\column_completeness_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia Baroncini\OneDrive - Alma Mater Studiorum Università di Bologna\Documents\GitHub\ArtGraphsLandscapeAnalysis\column_completeness_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E52639F-D3B1-4859-8F38-416EA6B522FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ADF40C-850C-4B29-979B-5F575CEAD00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="column_completeness_yago" sheetId="2" r:id="rId1"/>
@@ -6620,17 +6620,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF3D234-0684-4B58-87B5-E55A1AB5DED9}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>106</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>152</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>122</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>124</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>161</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>163</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>154</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>155</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>144</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>98</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>110</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>111</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>112</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>156</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>175</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>150</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>126</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>52</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>91</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>113</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>128</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>146</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>165</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>167</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>169</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>130</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>53</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>173</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>20</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>132</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>24</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>26</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>55</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>33</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>57</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>75</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>77</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>95</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>28</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>100</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>171</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>104</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>116</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>134</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>136</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>157</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>159</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>138</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>79</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>140</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>142</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>30</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>14</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>118</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>83</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>102</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>97</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>31</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>143</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>81</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>37</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>18</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>22</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>60</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>16</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>119</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>61</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>120</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>62</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>63</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>64</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>148</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>65</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>35</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8470,19 +8470,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8E9AE-0FA6-4546-AAC2-A003933360D1}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>235</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>194</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>355</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>291</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>277</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>182</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>273</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>219</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>259</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>292</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>197</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>329</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>247</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>354</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>188</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>369</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>232</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>225</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>334</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>298</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>215</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>308</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>261</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>344</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>318</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>279</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>340</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>294</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>199</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>325</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>359</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>316</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>346</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>271</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>310</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>201</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>241</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>306</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>302</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>226</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>269</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>304</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>209</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>190</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>245</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>321</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>348</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>365</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>350</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>363</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>281</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>243</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>217</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>289</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>342</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>223</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>257</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>239</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>267</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>357</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>336</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>330</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>314</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>287</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>249</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>300</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>367</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>211</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>352</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>285</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>323</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>233</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>251</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>327</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>196</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>265</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>186</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>192</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>205</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>263</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>361</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>184</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>338</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>283</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>230</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>312</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>213</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>221</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>253</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>237</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>341</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>203</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>207</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>255</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>319</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>332</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>275</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>296</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>228</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
@@ -10623,17 +10623,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ADBCDF-6025-48C6-923B-09B6AF332315}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>580</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>579</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>494</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>614</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>618</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>489</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>525</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>638</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>571</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>610</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>601</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>557</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>538</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>462</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>649</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>544</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>547</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>476</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>565</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>472</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>559</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>622</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>624</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>597</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>493</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>575</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>651</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>551</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>599</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>481</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>515</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>608</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>561</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>483</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>477</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>542</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>519</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>527</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>603</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>535</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>470</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>569</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>529</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>616</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>549</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>582</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>499</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>573</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>511</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>626</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>498</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>496</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>628</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>632</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>517</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>487</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>567</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>606</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>604</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>593</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>595</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>620</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>540</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>468</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>501</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>509</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>577</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>533</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>553</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>507</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>503</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>640</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>644</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>587</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>642</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>612</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>521</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>531</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>479</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>545</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>474</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>513</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>485</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>491</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>505</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>591</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>464</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>584</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>589</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>630</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>646</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>636</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>563</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>586</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>555</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>536</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>634</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>648</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>466</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>523</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="6"/>
       <c r="C102" s="2"/>
@@ -12475,17 +12475,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD284BA-28A1-4B3A-B6A7-5AE49D72DF75}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>662</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>698</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>746</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>782</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>814</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>700</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>734</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>790</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>732</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>713</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>728</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>778</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>775</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>740</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>738</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>767</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>687</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>715</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>840</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>708</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>765</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>826</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>750</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>674</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>830</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>658</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>802</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>837</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>689</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>800</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>773</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>798</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>742</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>816</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>726</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>772</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>683</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>824</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>736</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>706</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>678</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>806</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>695</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>788</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>730</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>670</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>836</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>685</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>656</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>820</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>672</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>682</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>792</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>676</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>693</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>744</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>758</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>724</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>839</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>719</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>786</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>776</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>654</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>756</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>691</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>760</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>721</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>769</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>722</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>818</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>763</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>794</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>784</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>712</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>664</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>762</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>810</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>754</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>666</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>660</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>702</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>717</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>804</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>796</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>780</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>680</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>812</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>808</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>752</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>704</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>748</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>822</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>668</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>828</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>832</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>696</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>841</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>834</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>770</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>710</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="6"/>
       <c r="C102" s="2"/>
@@ -14324,17 +14324,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9C5E89-23E2-43A5-96E1-3D4B01F7232B}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>962</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>984</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>881</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>853</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>982</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>921</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>870</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>862</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>916</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>869</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>974</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>992</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>998</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>978</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>872</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>955</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>986</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>928</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>945</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>933</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>867</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>886</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>890</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>857</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>883</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>912</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1006</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>996</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1001</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>876</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>914</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>905</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>988</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>951</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>925</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>975</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>994</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>987</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>966</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>849</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>845</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>878</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1007</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>910</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>917</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1000</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>894</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>958</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1003</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>851</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>924</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>855</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>866</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>859</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>901</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>864</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>964</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>948</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>919</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>927</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>943</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>938</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>898</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>874</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>896</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>972</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>880</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>970</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>929</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>960</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>847</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>949</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>957</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>941</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>939</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>884</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>932</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>908</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>953</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>923</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1004</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>888</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>968</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>860</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>952</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>892</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>907</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>931</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>991</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>961</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>934</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>977</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>900</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>903</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>946</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>989</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>981</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>936</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>980</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>843</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -16173,21 +16173,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0537315-D5A2-4851-AB2F-221F2E8376D0}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1080</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1084</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1086</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1088</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1154</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1034</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1090</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1092</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1096</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1098</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1197</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1201</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1041</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1043</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1045</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1012</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1102</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1104</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1100</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1188</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1190</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1076</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1106</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1065</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1203</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1205</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1207</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1072</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1219</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1221</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1209</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1211</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1213</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1192</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1223</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1225</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1016</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>1067</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1109</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>1030</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1111</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>1215</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1113</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>1078</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1115</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1117</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1119</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1121</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1123</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>1125</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>1127</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1129</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>1131</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>1135</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1137</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1139</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>1141</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1143</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1049</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>1051</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1145</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1155</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>1157</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>1159</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>1161</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1163</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>1165</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>1217</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>1167</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1182</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>1147</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>1149</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>1151</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>1053</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>1055</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>1058</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>1094</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1021</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>1019</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>1036</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1032</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1169</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1069</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1184</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1171</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1172</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1174</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>1023</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1061</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>1133</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1074</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1175</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1178</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1186</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1194</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1028</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1038</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1180</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1063</v>
       </c>
@@ -18913,7 +18913,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
@@ -18941,19 +18941,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A848D36F-D15B-4384-A772-DB9B4F9C53CE}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="4"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1421</v>
       </c>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1362</v>
       </c>
@@ -19014,7 +19014,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1343</v>
       </c>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1464</v>
       </c>
@@ -19050,7 +19050,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1447</v>
       </c>
@@ -19069,7 +19069,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1401</v>
       </c>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1351</v>
       </c>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1331</v>
       </c>
@@ -19135,7 +19135,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1439</v>
       </c>
@@ -19154,7 +19154,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1354</v>
       </c>
@@ -19173,7 +19173,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1422</v>
       </c>
@@ -19192,7 +19192,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1385</v>
       </c>
@@ -19211,7 +19211,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1431</v>
       </c>
@@ -19230,7 +19230,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1436</v>
       </c>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1460</v>
       </c>
@@ -19268,7 +19268,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1370</v>
       </c>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1461</v>
       </c>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1434</v>
       </c>
@@ -19323,7 +19323,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1386</v>
       </c>
@@ -19342,7 +19342,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1426</v>
       </c>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1398</v>
       </c>
@@ -19380,7 +19380,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1403</v>
       </c>
@@ -19399,7 +19399,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1328</v>
       </c>
@@ -19418,7 +19418,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1363</v>
       </c>
@@ -19437,7 +19437,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1324</v>
       </c>
@@ -19456,7 +19456,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1443</v>
       </c>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1387</v>
       </c>
@@ -19494,7 +19494,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1347</v>
       </c>
@@ -19516,7 +19516,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1420</v>
       </c>
@@ -19535,7 +19535,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1364</v>
       </c>
@@ -19554,7 +19554,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1407</v>
       </c>
@@ -19573,7 +19573,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1448</v>
       </c>
@@ -19592,7 +19592,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1423</v>
       </c>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1333</v>
       </c>
@@ -19630,7 +19630,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1406</v>
       </c>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1410</v>
       </c>
@@ -19668,7 +19668,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1414</v>
       </c>
@@ -19687,7 +19687,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>1353</v>
       </c>
@@ -19706,7 +19706,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1404</v>
       </c>
@@ -19725,7 +19725,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>1325</v>
       </c>
@@ -19744,7 +19744,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1360</v>
       </c>
@@ -19763,7 +19763,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>1319</v>
       </c>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1399</v>
       </c>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>1334</v>
       </c>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1442</v>
       </c>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1388</v>
       </c>
@@ -19858,7 +19858,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1321</v>
       </c>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1437</v>
       </c>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1451</v>
       </c>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>1361</v>
       </c>
@@ -19934,7 +19934,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>1452</v>
       </c>
@@ -19953,7 +19953,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1369</v>
       </c>
@@ -19970,9 +19970,11 @@
       <c r="F53" s="2">
         <v>-1</v>
       </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>1402</v>
       </c>
@@ -19991,7 +19993,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>1405</v>
       </c>
@@ -20010,7 +20012,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1350</v>
       </c>
@@ -20029,7 +20031,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1342</v>
       </c>
@@ -20048,7 +20050,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>1438</v>
       </c>
@@ -20067,7 +20069,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1376</v>
       </c>
@@ -20086,7 +20088,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1411</v>
       </c>
@@ -20105,7 +20107,7 @@
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>1349</v>
       </c>
@@ -20124,7 +20126,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1455</v>
       </c>
@@ -20143,7 +20145,7 @@
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1446</v>
       </c>
@@ -20162,7 +20164,7 @@
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>1412</v>
       </c>
@@ -20184,7 +20186,7 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>1394</v>
       </c>
@@ -20206,7 +20208,7 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>1377</v>
       </c>
@@ -20228,7 +20230,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1449</v>
       </c>
@@ -20247,7 +20249,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>1326</v>
       </c>
@@ -20269,7 +20271,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>1462</v>
       </c>
@@ -20289,7 +20291,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>1432</v>
       </c>
@@ -20310,7 +20312,7 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1365</v>
       </c>
@@ -20331,7 +20333,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>1418</v>
       </c>
@@ -20353,7 +20355,7 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>1440</v>
       </c>
@@ -20375,7 +20377,7 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>1417</v>
       </c>
@@ -20394,7 +20396,7 @@
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>1367</v>
       </c>
@@ -20413,7 +20415,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>1408</v>
       </c>
@@ -20435,7 +20437,7 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>1381</v>
       </c>
@@ -20457,7 +20459,7 @@
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>1383</v>
       </c>
@@ -20476,7 +20478,7 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1336</v>
       </c>
@@ -20498,7 +20500,7 @@
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>1393</v>
       </c>
@@ -20520,7 +20522,7 @@
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>1322</v>
       </c>
@@ -20542,7 +20544,7 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1345</v>
       </c>
@@ -20563,7 +20565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1389</v>
       </c>
@@ -20585,7 +20587,7 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1356</v>
       </c>
@@ -20607,7 +20609,7 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1374</v>
       </c>
@@ -20629,7 +20631,7 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1444</v>
       </c>
@@ -20651,7 +20653,7 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1358</v>
       </c>
@@ -20673,7 +20675,7 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1340</v>
       </c>
@@ -20695,7 +20697,7 @@
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>1424</v>
       </c>
@@ -20717,7 +20719,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1456</v>
       </c>
@@ -20739,7 +20741,7 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>1429</v>
       </c>
@@ -20760,7 +20762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1415</v>
       </c>
@@ -20782,7 +20784,7 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1329</v>
       </c>
@@ -20804,7 +20806,7 @@
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1379</v>
       </c>
@@ -20826,7 +20828,7 @@
       </c>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1396</v>
       </c>
@@ -20848,7 +20850,7 @@
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1391</v>
       </c>
@@ -20870,7 +20872,7 @@
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1427</v>
       </c>
@@ -20892,7 +20894,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1372</v>
       </c>
@@ -20914,7 +20916,7 @@
       </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1338</v>
       </c>
@@ -20936,7 +20938,7 @@
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1453</v>
       </c>
@@ -20958,7 +20960,7 @@
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1458</v>
       </c>
@@ -20980,7 +20982,7 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="10"/>
@@ -20992,7 +20994,7 @@
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="10"/>
@@ -21017,19 +21019,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B98" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="4"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -21049,7 +21051,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1524</v>
       </c>
@@ -21070,7 +21072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1515</v>
       </c>
@@ -21091,7 +21093,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1557</v>
       </c>
@@ -21112,7 +21114,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1623</v>
       </c>
@@ -21133,7 +21135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1554</v>
       </c>
@@ -21154,7 +21156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1686</v>
       </c>
@@ -21175,7 +21177,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1602</v>
       </c>
@@ -21196,7 +21198,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1578</v>
       </c>
@@ -21217,7 +21219,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1527</v>
       </c>
@@ -21238,7 +21240,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1635</v>
       </c>
@@ -21259,7 +21261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1689</v>
       </c>
@@ -21280,7 +21282,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1629</v>
       </c>
@@ -21301,7 +21303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1512</v>
       </c>
@@ -21322,7 +21324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1572</v>
       </c>
@@ -21343,7 +21345,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1518</v>
       </c>
@@ -21364,7 +21366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>1739</v>
       </c>
@@ -21385,7 +21387,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1581</v>
       </c>
@@ -21406,7 +21408,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>1754</v>
       </c>
@@ -21427,7 +21429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1736</v>
       </c>
@@ -21448,7 +21450,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1718</v>
       </c>
@@ -21469,7 +21471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>1781</v>
       </c>
@@ -21490,7 +21492,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>1662</v>
       </c>
@@ -21511,7 +21513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>1763</v>
       </c>
@@ -21532,7 +21534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>1593</v>
       </c>
@@ -21553,7 +21555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>1560</v>
       </c>
@@ -21574,7 +21576,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>1563</v>
       </c>
@@ -21595,7 +21597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1545</v>
       </c>
@@ -21616,7 +21618,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>1626</v>
       </c>
@@ -21637,7 +21639,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1647</v>
       </c>
@@ -21658,7 +21660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1730</v>
       </c>
@@ -21679,7 +21681,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>1569</v>
       </c>
@@ -21700,7 +21702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>1608</v>
       </c>
@@ -21721,7 +21723,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>1766</v>
       </c>
@@ -21742,7 +21744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>1542</v>
       </c>
@@ -21763,7 +21765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>1778</v>
       </c>
@@ -21784,7 +21786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>1695</v>
       </c>
@@ -21805,7 +21807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>1701</v>
       </c>
@@ -21826,7 +21828,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1674</v>
       </c>
@@ -21847,7 +21849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>1793</v>
       </c>
@@ -21868,7 +21870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>1587</v>
       </c>
@@ -21889,7 +21891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>1506</v>
       </c>
@@ -21910,7 +21912,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>1665</v>
       </c>
@@ -21931,7 +21933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>1683</v>
       </c>
@@ -21952,7 +21954,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>1724</v>
       </c>
@@ -21973,7 +21975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>1772</v>
       </c>
@@ -21994,7 +21996,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>1575</v>
       </c>
@@ -22015,7 +22017,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1596</v>
       </c>
@@ -22036,7 +22038,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>1632</v>
       </c>
@@ -22057,7 +22059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1757</v>
       </c>
@@ -22078,7 +22080,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>1605</v>
       </c>
@@ -22099,7 +22101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1533</v>
       </c>
@@ -22120,7 +22122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>1650</v>
       </c>
@@ -22141,7 +22143,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1745</v>
       </c>
@@ -22162,7 +22164,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>1704</v>
       </c>
@@ -22183,7 +22185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>1638</v>
       </c>
@@ -22204,7 +22206,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>1698</v>
       </c>
@@ -22225,7 +22227,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1760</v>
       </c>
@@ -22246,7 +22248,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1539</v>
       </c>
@@ -22267,7 +22269,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1787</v>
       </c>
@@ -22288,7 +22290,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1707</v>
       </c>
@@ -22309,7 +22311,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>1784</v>
       </c>
@@ -22330,7 +22332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1614</v>
       </c>
@@ -22351,7 +22353,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1790</v>
       </c>
@@ -22372,7 +22374,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>1659</v>
       </c>
@@ -22393,7 +22395,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1530</v>
       </c>
@@ -22414,7 +22416,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>1509</v>
       </c>
@@ -22435,7 +22437,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1653</v>
       </c>
@@ -22456,7 +22458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>1751</v>
       </c>
@@ -22477,7 +22479,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>1548</v>
       </c>
@@ -22498,7 +22500,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>1709</v>
       </c>
@@ -22519,7 +22521,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>1721</v>
       </c>
@@ -22540,7 +22542,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>1599</v>
       </c>
@@ -22561,7 +22563,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>1796</v>
       </c>
@@ -22582,7 +22584,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>1536</v>
       </c>
@@ -22603,7 +22605,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>1620</v>
       </c>
@@ -22624,7 +22626,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>1692</v>
       </c>
@@ -22645,7 +22647,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1641</v>
       </c>
@@ -22666,7 +22668,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>1775</v>
       </c>
@@ -22687,7 +22689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>1742</v>
       </c>
@@ -22708,7 +22710,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>1727</v>
       </c>
@@ -22729,7 +22731,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1712</v>
       </c>
@@ -22750,7 +22752,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>1715</v>
       </c>
@@ -22771,7 +22773,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1769</v>
       </c>
@@ -22792,7 +22794,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>1503</v>
       </c>
@@ -22813,7 +22815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>1748</v>
       </c>
@@ -22834,7 +22836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>1584</v>
       </c>
@@ -22855,7 +22857,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1566</v>
       </c>
@@ -22876,7 +22878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1611</v>
       </c>
@@ -22897,7 +22899,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1644</v>
       </c>
@@ -22918,7 +22920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1680</v>
       </c>
@@ -22939,7 +22941,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1551</v>
       </c>
@@ -22960,7 +22962,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1656</v>
       </c>
@@ -22981,7 +22983,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1590</v>
       </c>
@@ -23002,7 +23004,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1617</v>
       </c>
@@ -23023,7 +23025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1521</v>
       </c>
@@ -23044,7 +23046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>1798</v>
       </c>
@@ -23065,7 +23067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>1677</v>
       </c>
@@ -23086,7 +23088,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>1733</v>
       </c>
@@ -23107,7 +23109,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>1668</v>
       </c>
@@ -23128,7 +23130,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>1671</v>
       </c>
@@ -23149,7 +23151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -23181,23 +23183,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632B418A-09A9-43CA-A7BC-2734CCBE858F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -23223,7 +23224,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2021</v>
       </c>
@@ -23246,11 +23247,11 @@
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <f>F2/G2</f>
+        <f t="shared" ref="H2:H33" si="0">F2/G2</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1962</v>
       </c>
@@ -23273,11 +23274,11 @@
         <v>3</v>
       </c>
       <c r="H3" s="2">
-        <f>F3/G3</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1970</v>
       </c>
@@ -23300,11 +23301,11 @@
         <v>3</v>
       </c>
       <c r="H4" s="2">
-        <f>F4/G4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2023</v>
       </c>
@@ -23327,11 +23328,11 @@
         <v>3</v>
       </c>
       <c r="H5" s="2">
-        <f>F5/G5</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1948</v>
       </c>
@@ -23354,11 +23355,11 @@
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <f>F6/G6</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1987</v>
       </c>
@@ -23381,11 +23382,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="2">
-        <f>F7/G7</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1861</v>
       </c>
@@ -23408,11 +23409,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="2">
-        <f>F8/G8</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2002</v>
       </c>
@@ -23435,11 +23436,11 @@
         <v>3</v>
       </c>
       <c r="H9" s="2">
-        <f>F9/G9</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2047</v>
       </c>
@@ -23462,11 +23463,11 @@
         <v>3</v>
       </c>
       <c r="H10" s="2">
-        <f>F10/G10</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1902</v>
       </c>
@@ -23489,11 +23490,11 @@
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <f>F11/G11</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>1960</v>
       </c>
@@ -23516,11 +23517,11 @@
         <v>3</v>
       </c>
       <c r="H12" s="2">
-        <f>F12/G12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1896</v>
       </c>
@@ -23543,11 +23544,11 @@
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <f>F13/G13</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1972</v>
       </c>
@@ -23570,11 +23571,11 @@
         <v>3</v>
       </c>
       <c r="H14" s="2">
-        <f>F14/G14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1968</v>
       </c>
@@ -23597,11 +23598,11 @@
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <f>F15/G15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1919</v>
       </c>
@@ -23624,11 +23625,11 @@
         <v>3</v>
       </c>
       <c r="H16" s="2">
-        <f>F16/G16</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1956</v>
       </c>
@@ -23651,11 +23652,11 @@
         <v>3</v>
       </c>
       <c r="H17" s="2">
-        <f>F17/G17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1871</v>
       </c>
@@ -23678,11 +23679,11 @@
         <v>2</v>
       </c>
       <c r="H18" s="2">
-        <f>F18/G18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1925</v>
       </c>
@@ -23705,11 +23706,11 @@
         <v>2</v>
       </c>
       <c r="H19" s="2">
-        <f>F19/G19</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1974</v>
       </c>
@@ -23732,11 +23733,11 @@
         <v>3</v>
       </c>
       <c r="H20" s="2">
-        <f>F20/G20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1910</v>
       </c>
@@ -23759,11 +23760,11 @@
         <v>3</v>
       </c>
       <c r="H21" s="2">
-        <f>F21/G21</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1811</v>
       </c>
@@ -23786,11 +23787,11 @@
         <v>2</v>
       </c>
       <c r="H22" s="2">
-        <f>F22/G22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1821</v>
       </c>
@@ -23813,11 +23814,11 @@
         <v>2</v>
       </c>
       <c r="H23" s="2">
-        <f>F23/G23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1880</v>
       </c>
@@ -23840,11 +23841,11 @@
         <v>3</v>
       </c>
       <c r="H24" s="2">
-        <f>F24/G24</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1818</v>
       </c>
@@ -23867,11 +23868,11 @@
         <v>2</v>
       </c>
       <c r="H25" s="2">
-        <f>F25/G25</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1828</v>
       </c>
@@ -23894,11 +23895,11 @@
         <v>2</v>
       </c>
       <c r="H26" s="2">
-        <f>F26/G26</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>1832</v>
       </c>
@@ -23921,11 +23922,11 @@
         <v>2</v>
       </c>
       <c r="H27" s="2">
-        <f>F27/G27</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1903</v>
       </c>
@@ -23948,11 +23949,11 @@
         <v>3</v>
       </c>
       <c r="H28" s="2">
-        <f>F28/G28</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1898</v>
       </c>
@@ -23975,11 +23976,11 @@
         <v>3</v>
       </c>
       <c r="H29" s="2">
-        <f>F29/G29</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>1920</v>
       </c>
@@ -24002,11 +24003,11 @@
         <v>3</v>
       </c>
       <c r="H30" s="2">
-        <f>F30/G30</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1884</v>
       </c>
@@ -24029,11 +24030,11 @@
         <v>3</v>
       </c>
       <c r="H31" s="2">
-        <f>F31/G31</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1887</v>
       </c>
@@ -24056,11 +24057,11 @@
         <v>3</v>
       </c>
       <c r="H32" s="2">
-        <f>F32/G32</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1825</v>
       </c>
@@ -24083,11 +24084,11 @@
         <v>3</v>
       </c>
       <c r="H33" s="2">
-        <f>F33/G33</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1927</v>
       </c>
@@ -24110,11 +24111,11 @@
         <v>3</v>
       </c>
       <c r="H34" s="2">
-        <f>F34/G34</f>
+        <f t="shared" ref="H34:H65" si="1">F34/G34</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1913</v>
       </c>
@@ -24137,11 +24138,11 @@
         <v>3</v>
       </c>
       <c r="H35" s="2">
-        <f>F35/G35</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1888</v>
       </c>
@@ -24164,11 +24165,11 @@
         <v>3</v>
       </c>
       <c r="H36" s="2">
-        <f>F36/G36</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1807</v>
       </c>
@@ -24191,11 +24192,11 @@
         <v>2</v>
       </c>
       <c r="H37" s="2">
-        <f>F37/G37</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1940</v>
       </c>
@@ -24218,11 +24219,11 @@
         <v>3</v>
       </c>
       <c r="H38" s="2">
-        <f>F38/G38</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>2043</v>
       </c>
@@ -24245,11 +24246,11 @@
         <v>3</v>
       </c>
       <c r="H39" s="2">
-        <f>F39/G39</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>2050</v>
       </c>
@@ -24272,11 +24273,11 @@
         <v>3</v>
       </c>
       <c r="H40" s="2">
-        <f>F40/G40</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>1836</v>
       </c>
@@ -24299,11 +24300,11 @@
         <v>3</v>
       </c>
       <c r="H41" s="2">
-        <f>F41/G41</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>2039</v>
       </c>
@@ -24326,11 +24327,11 @@
         <v>3</v>
       </c>
       <c r="H42" s="2">
-        <f>F42/G42</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>1980</v>
       </c>
@@ -24353,11 +24354,11 @@
         <v>3</v>
       </c>
       <c r="H43" s="2">
-        <f>F43/G43</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1814</v>
       </c>
@@ -24380,11 +24381,11 @@
         <v>3</v>
       </c>
       <c r="H44" s="2">
-        <f>F44/G44</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>2015</v>
       </c>
@@ -24407,11 +24408,11 @@
         <v>3</v>
       </c>
       <c r="H45" s="2">
-        <f>F45/G45</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1992</v>
       </c>
@@ -24434,11 +24435,11 @@
         <v>3</v>
       </c>
       <c r="H46" s="2">
-        <f>F46/G46</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1840</v>
       </c>
@@ -24461,11 +24462,11 @@
         <v>3</v>
       </c>
       <c r="H47" s="2">
-        <f>F47/G47</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1875</v>
       </c>
@@ -24488,11 +24489,11 @@
         <v>3</v>
       </c>
       <c r="H48" s="2">
-        <f>F48/G48</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1867</v>
       </c>
@@ -24515,11 +24516,11 @@
         <v>3</v>
       </c>
       <c r="H49" s="2">
-        <f>F49/G49</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>2031</v>
       </c>
@@ -24542,11 +24543,11 @@
         <v>3</v>
       </c>
       <c r="H50" s="2">
-        <f>F50/G50</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>2006</v>
       </c>
@@ -24569,11 +24570,11 @@
         <v>3</v>
       </c>
       <c r="H51" s="2">
-        <f>F51/G51</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>2041</v>
       </c>
@@ -24596,11 +24597,11 @@
         <v>3</v>
       </c>
       <c r="H52" s="2">
-        <f>F52/G52</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1985</v>
       </c>
@@ -24623,11 +24624,11 @@
         <v>3</v>
       </c>
       <c r="H53" s="2">
-        <f>F53/G53</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>1949</v>
       </c>
@@ -24650,11 +24651,11 @@
         <v>3</v>
       </c>
       <c r="H54" s="2">
-        <f>F54/G54</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>1803</v>
       </c>
@@ -24677,11 +24678,11 @@
         <v>3</v>
       </c>
       <c r="H55" s="2">
-        <f>F55/G55</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1996</v>
       </c>
@@ -24704,11 +24705,11 @@
         <v>3</v>
       </c>
       <c r="H56" s="2">
-        <f>F56/G56</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>2037</v>
       </c>
@@ -24731,11 +24732,11 @@
         <v>3</v>
       </c>
       <c r="H57" s="2">
-        <f>F57/G57</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>2036</v>
       </c>
@@ -24758,11 +24759,11 @@
         <v>3</v>
       </c>
       <c r="H58" s="2">
-        <f>F58/G58</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1990</v>
       </c>
@@ -24785,11 +24786,11 @@
         <v>3</v>
       </c>
       <c r="H59" s="2">
-        <f>F59/G59</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1944</v>
       </c>
@@ -24812,11 +24813,11 @@
         <v>3</v>
       </c>
       <c r="H60" s="2">
-        <f>F60/G60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>1946</v>
       </c>
@@ -24839,11 +24840,11 @@
         <v>3</v>
       </c>
       <c r="H61" s="2">
-        <f>F61/G61</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1848</v>
       </c>
@@ -24866,11 +24867,11 @@
         <v>3</v>
       </c>
       <c r="H62" s="2">
-        <f>F62/G62</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1851</v>
       </c>
@@ -24893,11 +24894,11 @@
         <v>3</v>
       </c>
       <c r="H63" s="2">
-        <f>F63/G63</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>2052</v>
       </c>
@@ -24920,11 +24921,11 @@
         <v>3</v>
       </c>
       <c r="H64" s="2">
-        <f>F64/G64</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>2045</v>
       </c>
@@ -24947,11 +24948,11 @@
         <v>3</v>
       </c>
       <c r="H65" s="2">
-        <f>F65/G65</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>1858</v>
       </c>
@@ -24974,11 +24975,11 @@
         <v>3</v>
       </c>
       <c r="H66" s="2">
-        <f>F66/G66</f>
+        <f t="shared" ref="H66:H97" si="2">F66/G66</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>1942</v>
       </c>
@@ -25001,11 +25002,11 @@
         <v>3</v>
       </c>
       <c r="H67" s="2">
-        <f>F67/G67</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>1952</v>
       </c>
@@ -25028,11 +25029,11 @@
         <v>3</v>
       </c>
       <c r="H68" s="2">
-        <f>F68/G68</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>2009</v>
       </c>
@@ -25055,11 +25056,11 @@
         <v>3</v>
       </c>
       <c r="H69" s="2">
-        <f>F69/G69</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>2011</v>
       </c>
@@ -25082,11 +25083,11 @@
         <v>3</v>
       </c>
       <c r="H70" s="2">
-        <f>F70/G70</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1928</v>
       </c>
@@ -25109,11 +25110,11 @@
         <v>3</v>
       </c>
       <c r="H71" s="2">
-        <f>F71/G71</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>1915</v>
       </c>
@@ -25136,11 +25137,11 @@
         <v>3</v>
       </c>
       <c r="H72" s="2">
-        <f>F72/G72</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>1905</v>
       </c>
@@ -25163,11 +25164,11 @@
         <v>3</v>
       </c>
       <c r="H73" s="2">
-        <f>F73/G73</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>1958</v>
       </c>
@@ -25190,11 +25191,11 @@
         <v>3</v>
       </c>
       <c r="H74" s="2">
-        <f>F74/G74</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>2012</v>
       </c>
@@ -25217,11 +25218,11 @@
         <v>3</v>
       </c>
       <c r="H75" s="2">
-        <f>F75/G75</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>1900</v>
       </c>
@@ -25244,11 +25245,11 @@
         <v>3</v>
       </c>
       <c r="H76" s="2">
-        <f>F76/G76</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>1854</v>
       </c>
@@ -25271,11 +25272,11 @@
         <v>3</v>
       </c>
       <c r="H77" s="2">
-        <f>F77/G77</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>1922</v>
       </c>
@@ -25298,11 +25299,11 @@
         <v>3</v>
       </c>
       <c r="H78" s="2">
-        <f>F78/G78</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1890</v>
       </c>
@@ -25325,11 +25326,11 @@
         <v>2</v>
       </c>
       <c r="H79" s="2">
-        <f>F79/G79</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>1997</v>
       </c>
@@ -25352,11 +25353,11 @@
         <v>3</v>
       </c>
       <c r="H80" s="2">
-        <f>F80/G80</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>1994</v>
       </c>
@@ -25379,11 +25380,11 @@
         <v>3</v>
       </c>
       <c r="H81" s="2">
-        <f>F81/G81</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1983</v>
       </c>
@@ -25406,11 +25407,11 @@
         <v>3</v>
       </c>
       <c r="H82" s="2">
-        <f>F82/G82</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1995</v>
       </c>
@@ -25433,11 +25434,11 @@
         <v>3</v>
       </c>
       <c r="H83" s="2">
-        <f>F83/G83</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1876</v>
       </c>
@@ -25460,11 +25461,11 @@
         <v>3</v>
       </c>
       <c r="H84" s="2">
-        <f>F84/G84</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1976</v>
       </c>
@@ -25487,11 +25488,11 @@
         <v>2</v>
       </c>
       <c r="H85" s="2">
-        <f>F85/G85</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1844</v>
       </c>
@@ -25514,11 +25515,11 @@
         <v>3</v>
       </c>
       <c r="H86" s="2">
-        <f>F86/G86</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1943</v>
       </c>
@@ -25541,11 +25542,11 @@
         <v>3</v>
       </c>
       <c r="H87" s="2">
-        <f>F87/G87</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1964</v>
       </c>
@@ -25568,11 +25569,11 @@
         <v>3</v>
       </c>
       <c r="H88" s="2">
-        <f>F88/G88</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>2027</v>
       </c>
@@ -25595,11 +25596,11 @@
         <v>3</v>
       </c>
       <c r="H89" s="2">
-        <f>F89/G89</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1932</v>
       </c>
@@ -25622,11 +25623,11 @@
         <v>3</v>
       </c>
       <c r="H90" s="2">
-        <f>F90/G90</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>2025</v>
       </c>
@@ -25649,11 +25650,11 @@
         <v>3</v>
       </c>
       <c r="H91" s="2">
-        <f>F91/G91</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1998</v>
       </c>
@@ -25676,11 +25677,11 @@
         <v>3</v>
       </c>
       <c r="H92" s="2">
-        <f>F92/G92</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1863</v>
       </c>
@@ -25703,11 +25704,11 @@
         <v>1</v>
       </c>
       <c r="H93" s="2">
-        <f>F93/G93</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1966</v>
       </c>
@@ -25730,11 +25731,11 @@
         <v>3</v>
       </c>
       <c r="H94" s="2">
-        <f>F94/G94</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1954</v>
       </c>
@@ -25757,11 +25758,11 @@
         <v>3</v>
       </c>
       <c r="H95" s="2">
-        <f>F95/G95</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1936</v>
       </c>
@@ -25784,11 +25785,11 @@
         <v>3</v>
       </c>
       <c r="H96" s="2">
-        <f>F96/G96</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1893</v>
       </c>
@@ -25811,11 +25812,11 @@
         <v>3</v>
       </c>
       <c r="H97" s="2">
-        <f>F97/G97</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1908</v>
       </c>
@@ -25838,11 +25839,11 @@
         <v>3</v>
       </c>
       <c r="H98" s="2">
-        <f>F98/G98</f>
+        <f t="shared" ref="H98:H129" si="3">F98/G98</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>2017</v>
       </c>
@@ -25865,11 +25866,11 @@
         <v>3</v>
       </c>
       <c r="H99" s="2">
-        <f>F99/G99</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>2019</v>
       </c>
@@ -25892,11 +25893,11 @@
         <v>3</v>
       </c>
       <c r="H100" s="2">
-        <f>F100/G100</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>2034</v>
       </c>
@@ -25919,11 +25920,11 @@
         <v>3</v>
       </c>
       <c r="H101" s="2">
-        <f>F101/G101</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -25937,16 +25938,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H102" xr:uid="{632B418A-09A9-43CA-A7BC-2734CCBE858F}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="0.333333333"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H102">
-      <sortCondition ref="A1:A102"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H102">
     <sortCondition ref="A2:A102"/>
   </sortState>
